--- a/src/main/resources/templates/cyber_asset_template.xlsx
+++ b/src/main/resources/templates/cyber_asset_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Asset Management Project\military-asset-backend\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE79176-6B23-46C4-85F9-B97C1F8EFF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298ACCE9-2566-4559-A665-C5401A10004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10821" windowHeight="13401" xr2:uid="{84C4AA33-55E2-4911-90C7-49FC445DCB3E}"/>
+    <workbookView xWindow="4661" yWindow="2381" windowWidth="13593" windowHeight="10363" xr2:uid="{84C4AA33-55E2-4911-90C7-49FC445DCB3E}"/>
   </bookViews>
   <sheets>
     <sheet name="网信基础资产" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>投入使用日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -188,6 +184,10 @@
   </si>
   <si>
     <t>盘点单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额（元）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,21 +279,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -311,43 +302,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -357,47 +324,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,17 +660,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE3CC5C-4078-4696-A737-1921DB068EEF}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="62.35546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.78515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="28.78515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.78515625" customWidth="1"/>
     <col min="8" max="8" width="28.2109375" customWidth="1"/>
@@ -704,178 +684,194 @@
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
-    <row r="2" spans="1:24" ht="14.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="9"/>
+      <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:23" s="19" customFormat="1" ht="29.15" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>2040</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="10">
+      <c r="O3" s="8"/>
+      <c r="P3" s="7">
         <v>41244</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="7">
         <v>1785</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="3"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="99.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="2"/>
-      <c r="P5" s="3"/>
+    <row r="5" spans="1:23" s="19" customFormat="1" ht="99.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:24" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="14.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="14.6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E8" s="18" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>15</v>
       </c>
@@ -886,5 +882,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>